--- a/HH3/test_procedure.xlsx
+++ b/HH3/test_procedure.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -165,9 +165,6 @@
     <t>username: admin, password: 123456</t>
   </si>
   <si>
-    <t>*****</t>
-  </si>
-  <si>
     <t>Log in as the newly created professor</t>
   </si>
   <si>
@@ -373,6 +370,15 @@
   </si>
   <si>
     <t>A_40</t>
+  </si>
+  <si>
+    <t>Click add user</t>
+  </si>
+  <si>
+    <t>Add a professor</t>
+  </si>
+  <si>
+    <t>A_41</t>
   </si>
 </sst>
 </file>
@@ -542,21 +548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -576,12 +567,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -654,7 +683,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -671,14 +700,7 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -688,6 +710,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -701,29 +730,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -739,14 +745,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:E51" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A11:E51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A11:E52" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A11:E52"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Test ID" dataDxfId="4"/>
     <tableColumn id="2" name="Instruction" dataDxfId="3"/>
     <tableColumn id="3" name="Item(s) to prove" dataDxfId="2"/>
-    <tableColumn id="5" name="Role" dataDxfId="0"/>
-    <tableColumn id="6" name="Comments" dataDxfId="1"/>
+    <tableColumn id="5" name="Role" dataDxfId="1"/>
+    <tableColumn id="6" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1015,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,34 +1073,34 @@
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1103,569 +1109,582 @@
       <c r="D11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="14"/>
+      <c r="D17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="14"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="14"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="14"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="17" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17" t="s">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="15"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="16"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="16"/>
+      <c r="E52" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
